--- a/salida/reportes_cefa_valorizada.xlsx
+++ b/salida/reportes_cefa_valorizada.xlsx
@@ -127,7 +127,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
